--- a/p_arrs/p_arr_1_row_20_20_5_col_2_lp_1_chisq.xlsx
+++ b/p_arrs/p_arr_1_row_20_20_5_col_2_lp_1_chisq.xlsx
@@ -18532,7 +18532,7 @@
         <v>1281</v>
       </c>
       <c r="B1281" t="n">
-        <v>0.00499999999999985</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="1282">
@@ -18692,7 +18692,7 @@
         <v>1301</v>
       </c>
       <c r="B1301" t="n">
-        <v>0.00499999999999985</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="1302">
@@ -19068,7 +19068,7 @@
         <v>1348</v>
       </c>
       <c r="B1348" t="n">
-        <v>0.00499999999999985</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="1349">
@@ -19228,7 +19228,7 @@
         <v>1368</v>
       </c>
       <c r="B1368" t="n">
-        <v>0.00499999999999985</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="1369">
